--- a/payment_slip.xlsx
+++ b/payment_slip.xlsx
@@ -23,10 +23,10 @@
     <t>Payment Amount</t>
   </si>
   <si>
-    <t>647cd9de58f21c33edb57712</t>
+    <t>647e146a29197f67d4c4b4b7</t>
   </si>
   <si>
-    <t>Perry Oluwapelumi</t>
+    <t>Elijah</t>
   </si>
 </sst>
 </file>
@@ -77,8 +77,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
